--- a/feature/RedescenteLRMHub/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/RedescenteLRMHub/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T08:55:21+00:00</t>
+    <t>2025-10-13T14:37:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRMHub/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/RedescenteLRMHub/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-13T14:37:57+00:00</t>
+    <t>2025-10-14T07:25:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRMHub/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/RedescenteLRMHub/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-14T07:25:19+00:00</t>
+    <t>2025-10-14T07:48:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRMHub/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/RedescenteLRMHub/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-14T07:48:21+00:00</t>
+    <t>2025-10-14T09:08:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRMHub/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/RedescenteLRMHub/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-14T09:08:01+00:00</t>
+    <t>2025-10-14T13:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRMHub/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/RedescenteLRMHub/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-14T13:35:28+00:00</t>
+    <t>2025-10-15T13:34:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRMHub/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/RedescenteLRMHub/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T13:34:51+00:00</t>
+    <t>2025-10-15T14:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRMHub/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/RedescenteLRMHub/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:17:23+00:00</t>
+    <t>2025-10-28T16:18:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRMHub/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/RedescenteLRMHub/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T16:18:27+00:00</t>
+    <t>2025-10-28T16:43:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRMHub/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/RedescenteLRMHub/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T16:43:33+00:00</t>
+    <t>2025-10-29T09:51:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRMHub/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/RedescenteLRMHub/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T09:51:36+00:00</t>
+    <t>2025-10-29T14:06:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRMHub/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/RedescenteLRMHub/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T14:06:34+00:00</t>
+    <t>2025-10-29T15:00:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRMHub/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/RedescenteLRMHub/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:00:17+00:00</t>
+    <t>2025-11-04T09:53:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
